--- a/data/excel_api/goods/data_goods.xlsx
+++ b/data/excel_api/goods/data_goods.xlsx
@@ -46,7 +46,7 @@
     <t>http://jadmins.beta.orderplus.com/goods/select</t>
   </si>
   <si>
-    <t>{"Cookie": "SESSION=6e3bd899-436b-4449-b2ae-6ec4b476ef43", "Content-Type": "application/json"}</t>
+    <t>{"Cookie": "SESSION=732ee92e-3e88-4a83-960d-8d6596ea3815", "Content-Type": "application/json"}</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
